--- a/TestAutomationZ/caseexcel/Example.xlsx
+++ b/TestAutomationZ/caseexcel/Example.xlsx
@@ -4,27 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2775" windowWidth="12705" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="15000" windowHeight="5280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="元素" sheetId="4" r:id="rId1"/>
-    <sheet name="普通用例" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="用例" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:J16"/>
+  <oleSize ref="A1:L14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="40">
   <si>
     <t>用例标题</t>
   </si>
   <si>
-    <t>公共用例</t>
-  </si>
-  <si>
     <t>步骤</t>
   </si>
   <si>
@@ -163,6 +159,14 @@
   </si>
   <si>
     <t>//em[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置条件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -541,99 +545,99 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27">
       <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27">
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="27">
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -651,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -668,143 +672,143 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="27">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="C4" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="27">
       <c r="C5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="27">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="C8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="C9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="27">
       <c r="C10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -812,18 +816,4 @@
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
 </file>